--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc2.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,756 +468,1680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual poder o Capítulo VII da Carta da ONU confere ao Conselho de Segurança?</t>
+          <t>Qual é a principal dificuldade da macroeconomia em comparação à microeconomia no que tange à mensuração da produção?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O poder de autorizar o emprego da força em reação a ameaças e violações da paz internacional.</t>
+          <t>A dificuldade de agregar a produção de milhões de mercadorias diferentes e heterogêneas em uma medida única de riqueza.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O que propiciou a intervenção do Conselho de Segurança na Bósnia-Herzegovina, segundo o texto?</t>
+          <t>O que é a Contabilidade Nacional e qual foi sua importância para o desenvolvimento da teoria econômica?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Uma combinação de fatores tradicionais de segurança entre Estados e questões envolvendo atrocidades cometidas contra direitos humanos.</t>
+          <t>É um instrumental para mensurar a totalidade das atividades econômicas, permitindo testes empíricos e análises qualitativas mais fundamentadas.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Que movimento mais amplo o Conselho de Segurança integrava ao usar o Capítulo VII para criar zonas de segurança e um tribunal penal internacional?</t>
+          <t>Quais são os três grandes grupos de fatores de produção utilizados na economia para gerar bens e serviços?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O movimento no sentido de incorporar as crises humanitárias internas ao conceito de “ameaças à paz e à segurança internacionais”.</t>
+          <t>Terra, capital e trabalho.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Na década de 1990, como o Conselho de Segurança justificou o uso do Capítulo VII em crises nacionais com foco humanitário?</t>
+          <t>Qual a diferença fundamental entre variáveis de fluxo e variáveis de estoque na economia?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Considerou que tais crises constituíam “ameaças à paz e à segurança internacionais”.</t>
+          <t>Fluxos são medidos ao longo de um período de tempo (contínuos), enquanto estoques são medidos em um instante específico (acumulados).</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Por que o Conselho de Segurança da ONU pode ampliar o alcance de sua ação além da concepção tradicional de ameaça?</t>
+          <t>Como se define o conceito de "produto" na contabilidade social?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Porque a Carta da ONU lhe confere amplos poderes para determinar o alcance de sua própria competência jurídica.</t>
+          <t>É a soma daquilo que foi produzido em um país durante determinado período.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual força na Somália, autorizada em dezembro de 1992, tinha amplo mandato para "promover a paz" e recorrer a todos os meios necessários?</t>
+          <t>Como é definido o crescimento econômico de um país em determinado período?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Uma segunda força multinacional, liderada pelos EUA, que dispunha de amplos poderes para recorrer à força militar.</t>
+          <t>Pelo aumento do produto naquele período, ou seja, a elevação na produção de bens e serviços que satisfaçam as necessidades humanas.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qual incidente em junho de 1993 levou o Conselho de Segurança a aumentar drasticamente o número de soldados da Unsom II na Somália?</t>
+          <t>Como a macroeconomia resolve o problema de somar produtos físicos heterogêneos (ex: laranjas e parafusos)?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A emboscada e morte de 23 militares paquistaneses de manutenção da paz por membros de uma milícia somali.</t>
+          <t>Utilizando os preços de mercado (valores monetários) como denominador comum para agregar os diferentes bens.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O que causou o subsequente colapso da operação da ONU e da força liderada pelos EUA na Somália em 1993?</t>
+          <t>O que é o "problema da dupla contagem" na mensuração do produto nacional?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A morte de 18 soldados americanos em 3 de outubro de 1993 e o clamor público causado pelas imagens mostradas na televisão.</t>
+          <t>É o erro de somar o valor dos bens intermediários junto com o valor do bem final, contabilizando o mesmo item mais de uma vez.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qual importante precedente foi estabelecido na Somália sobre o emprego da força, apesar da diminuição da vontade política de intervir?</t>
+          <t>O que define um "bem final" na contabilidade nacional?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pela primeira vez, o Conselho de Segurança considerou uma crise humanitária como ameaça à paz e autorizou intervenção militar com o propósito exclusivo de evitar sofrimento.</t>
+          <t>É o bem destinado diretamente à satisfação das necessidades humanas, não sendo utilizado como insumo na produção de outros bens no período.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual foi a reação do Conselho de Segurança da ONU ao golpe de Estado no Haiti em 1991, em comparação com a OEA e a Assembleia Geral?</t>
+          <t>O que é o Valor Adicionado em uma etapa da cadeia produtiva?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Não reagiu com a mesma rapidez, pois a China manifestava restrições ao crescente envolvimento do Conselho em questões de jurisdição nacional.</t>
+          <t>É o valor que foi acrescido na etapa, calculado subtraindo-se do valor bruto da produção o valor das matérias-primas utilizadas.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quais fatores específicos levaram o Conselho de Segurança a determinar que a situação no Haiti ameaçava a paz regional em junho de 1993?</t>
+          <t>Qual é a definição de Produto Interno Bruto a preços de mercado (PIBpm)?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Crises humanitárias (incluindo deslocamento em massa) e o clima de medo capaz de aumentar o número de haitianos em busca de refúgio em países vizinhos.</t>
+          <t>É o valor monetário de venda dos produtos finais produzidos dentro do país em determinado período.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual elemento prático conferiu dimensão internacional à crise do Haiti e justificou a iniciativa do Conselho de Segurança?</t>
+          <t>Além da ótica do produto, quais são as outras duas óticas para medir a atividade econômica?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A fuga de milhares de refugiados haitianos em embarcações precárias, muitos em direção à Flórida, preocupando os Estados Unidos.</t>
+          <t>A ótica do dispêndio (ou demanda/compras finais) e a ótica da renda (remuneração dos fatores).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual resolução o Conselho de Segurança invocou em 1994, a pedido de Aristide, autorizando o uso de "todos os meios necessários" para afastar a junta do Haiti?</t>
+          <t>O que compõe a "absorção interna" e por que ela difere do produto?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A Resolução 940.</t>
+          <t>É a soma do consumo e investimento; difere do produto pois não inclui as exportações e não desconta as importações.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O que as iniciativas do Conselho de Segurança no Haiti confirmam sobre sua competência legal?</t>
+          <t>Na ótica do dispêndio, por que as importações são subtraídas do cálculo do produto?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Que o organismo é legalmente competente para impor sanções e autorizar o uso da força para reagir a crises humanitárias internas que pouca ou nenhuma ameaça apresentam para outros países.</t>
+          <t>Porque correspondem a bens consumidos ou investidos internamente, mas que não foram produzidos no país.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual era a posição do Painel de Alto Nível do Secretário-Geral em 2004 sobre a autoridade do Conselho de Segurança para ações militares em agravos internos catastróficos?</t>
+          <t>Por que existe a identidade contábil entre Produto e Renda?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O Conselho pode autorizar ações militares sob o Capítulo VII se considerar que a situação constitui "ameaça à paz e à segurança internacionais".</t>
+          <t>Porque o valor adicionado (produto) corresponde exatamente à soma das remunerações dos fatores de produção (salários, lucros, juros, aluguéis).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Como o Conselho de Segurança da ONU reagiu à partida forçada de Aristide do Haiti em fevereiro de 2004?</t>
+          <t>Em uma economia simples (sem governo/setor externo), qual é a relação entre Renda (Y) e Consumo (C)?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adotou por unanimidade a Resolução 1529, autorizando a intervenção de uma força multilateral para o restabelecimento da ordem pública.</t>
+          <t>A renda é integralmente igual ao consumo (Y = C), assumindo que não há poupança.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qual foi a formulação cuidadosa usada na Resolução 1529 para justificar a intervenção no Haiti em 2004?</t>
+          <t>O que define o "investimento" na macroeconomia?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Determinava que a situação constituía uma ameaça à paz e segurança internacionais, especialmente em vista da possibilidade de fuga de pessoas para outros Estados.</t>
+          <t>É a aquisição de bens de capital (máquinas, edifícios) ou variação de estoques visando aumentar ou manter a capacidade produtiva futura.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Por que o Conselho de Segurança se recusou a impor sanções ou autorizar o uso da força contra a invasão da Indonésia em Timor Leste em 1975?</t>
+          <t>O que representam os dois mercados no fluxo circular da renda simplificado?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A Indonésia era estrategicamente importante demais para os Estados Unidos e seus aliados durante a Guerra Fria.</t>
+          <t>O mercado de bens finais (onde famílias compram) e o mercado de fatores de produção (onde famílias vendem trabalho e capital).</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Qual foi o resultado do referendo em Timor Leste em agosto de 1999 e qual foi a reação imediata?</t>
+          <t>O que é a poupança (S) das famílias na teoria macroeconômica?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A esmagadora maioria (78,5%) votou a favor da independência, resultando na intensificação da violência da milícia pró-Indonésia.</t>
+          <t>É a parcela da renda que não é consumida pelas famílias em determinado período.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Qual Resolução o Conselho de Segurança adotou em setembro de 1999 para Timor Leste, e o que ela autorizava?</t>
+          <t>Qual é o papel do Sistema Financeiro no fluxo circular da renda com poupança e investimento?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Resolução 1264, autorizando uma força multinacional sob o Capítulo VII a "tomar todas as medidas necessárias" para restabelecer a paz e a segurança.</t>
+          <t>Captar a poupança das famílias e transferi-la, via empréstimos, para as empresas realizarem investimentos.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Qual marco histórico o Conselho de Segurança estabeleceu ao criar a Untaet em Timor Leste?</t>
+          <t>Como fica a equação do destino da renda (Y) quando as famílias poupam?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Foi a primeira vez que as Nações Unidas assumiram controle completo sobre as funções soberanas de um país.</t>
+          <t>Y = C + S (Renda é igual a Consumo mais Poupança).</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quem armou os *janjaweed* na região de Darfur e com qual missão?</t>
+          <t>Qual identidade macroeconômica fundamental surge da igualdade entre Renda (Y=C+S) e Demanda Agregada (DA=C+I)?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O governo sudanês (Cartum) os armou, delegando-lhes a missão de reprimir a rebelião das tribos agrícolas negras.</t>
+          <t>A identidade de que o Investimento é igual à Poupança (I = S).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Qual foi a reação do Congresso dos EUA às atrocidades em Darfur em julho de 2004?</t>
+          <t>O que é a depreciação e como ela afeta o conceito de Investimento?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aprovou uma resolução designando as atrocidades como “genocídio”.</t>
+          <t>É o desgaste do capital produtivo; o Investimento Líquido é igual ao Investimento Bruto menos a depreciação.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Por que um embargo de petróleo contra o Sudão é improvável, apesar de ter considerável efeito?</t>
+          <t>O que caracteriza os "bens públicos" providos pelo governo?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>China e Rússia, membros com direito de veto, investiram pesadamente na indústria petrolífera sudanesa e impediriam a sanção.</t>
+          <t>São bens de consumo não rival e não excludente (ex: segurança nacional), que o mercado não consegue ofertar de forma eficiente.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 8, 9</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Qual foi a única organização internacional que tomou iniciativas importantes na região de Darfur em agosto de 2004, enviando soldados?</t>
+          <t>Qual a diferença entre impostos diretos e indiretos?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A Organização da Unidade Africana (OUA), enviando uma força de soldados ruandeses e nigerianos.</t>
+          <t>Impostos diretos incidem sobre a renda/propriedade; impostos indiretos incidem sobre mercadorias e são embutidos nos preços.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Na ausência de autorização do Conselho de Segurança da ONU, do que depende a mobilização de forças da OUA em Darfur?</t>
+          <t>O que são subsídios e como eles afetam o preço de mercado?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Depende do consentimento e da cooperação do governo de Cartum.</t>
+          <t>São pagamentos do governo para custear a produção, funcionando como imposto negativo que reduz o preço de mercado abaixo do custo.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qual foi a declaração do presidente ruandês Paul Kagame em agosto de 2004, ao enviar tropas para Darfur?</t>
+          <t>Qual a fórmula para converter o PIB a preços de mercado (PIBpm) em PIB a custo de fatores (PIBcf)?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Que as tropas fariam uso da força para proteger os civis e não ficariam observando o massacre, como aconteceu em Ruanda em 1994.</t>
+          <t>PIBcf = PIBpm - impostos indiretos + subsídios.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>O que são transferências do governo (R) e como impactam a renda disponível?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>São pagamentos sem contrapartida (ex: aposentadorias) que aumentam a renda dos agentes, atuando como um imposto direto negativo.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Como é definida a "Renda Líquida do Setor Público" (T)?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>É a soma de impostos diretos e indiretos, subtraindo-se as transferências e os subsídios.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Qual é a equação da Poupança Pública (Sg)?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sg = T - G (Renda líquida do governo menos o Consumo do governo).</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Qual a diferença entre poupança pública (Sg) e déficit público (Dg)?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Poupança é a receita menos consumo corrente; déficit ocorre quando o investimento público supera a poupança pública (Ig &gt; Sg).</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>O que significa "Resto do Mundo" na contabilidade nacional?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>São todos os agentes (famílias, empresas, governos) não residentes que realizam transações com os residentes do país.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>O que acontece com a relação Poupança-Investimento quando há déficit público?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>O setor privado deve gerar um excesso de poupança (Sp &gt; Ip) para financiar o déficit do governo.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>O que compõe a Renda Líquida Enviada ao Exterior?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>É a diferença entre pagamentos a fatores externos usados no país e recebimentos de fatores nacionais no exterior.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Qual a diferença conceitual entre Produto Interno (PIB) e Produto Nacional (PNB)?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>O PIB mede a produção dentro do território; o PNB mede a produção pertencente aos nacionais, descontando a renda enviada ao exterior.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>O que é a Poupança Externa (Se) na identidade macroeconômica?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>É o saldo negativo das transações correntes (importações líquidas mais renda enviada), representando o financiamento externo ao investimento.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Qual é a identidade completa de investimento (I) em uma economia aberta com governo?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I = Sp + Sg + Se (Soma da poupança privada, pública e externa).</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>O que define a Renda Nacional (RN)?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>É equivalente ao Produto Nacional Líquido a custo de fatores (PNLcf).</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Como se calcula a Renda Pessoal Disponível (RPD)?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>É a Renda Pessoal menos os impostos diretos pagos pelas famílias.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Qual a diferença entre Produto Nominal e Produto Real?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nominal é medido a preços correntes (do ano); Real é medido a preços constantes, descontando o efeito da inflação.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Por que o Produto Real é a medida correta para avaliar o crescimento econômico?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Porque isola a variação de preços, mostrando apenas o crescimento efetivo da quantidade de bens e serviços produzidos.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>O que é o Deflator Implícito do Produto?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>É um índice de preços obtido pela razão entre o PIB nominal e o PIB real.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>O que foi o "Milagre Econômico" (1968-1973) observado no gráfico do PIB brasileiro?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Um período de crescimento extremamente acelerado, com taxas anuais superiores a 10%.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Como se comportou o PIB brasileiro na chamada "década perdida" (anos 1980)?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Apresentou forte instabilidade e anos de recessão profunda, devido à crise da dívida externa e hiperinflação.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Qual foi o efeito imediato da pandemia de Covid-19 no PIB brasileiro em 2020?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Uma forte contração (recessão) da atividade econômica, visível na queda acentuada do gráfico do PIB.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Segundo a tabela comparativa internacional, qual é a característica do consumo no PIB brasileiro?</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>O consumo (famílias + governo) tem participação muito elevada (cerca de 80%), superior à de países com altas taxas de investimento.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Como se compara a taxa de investimento (Formação Bruta de Capital) do Brasil com a da China em 2021?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A taxa brasileira (18,1%) é muito inferior à chinesa (42,8%), indicando menor acumulação de capital.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>O que a baixa relação Exportações/PIB do Brasil sugere na comparação internacional?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sugere que a economia brasileira é relativamente fechada em comparação a países muito integrados ao comércio global, como Alemanha.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Por que o PIB em dólares correntes pode ser enganoso para comparar o padrão de vida entre países?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Porque flutuações na taxa de câmbio podem alterar drasticamente o valor em dólares sem mudar a produção real ou o poder de compra interno.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>O que é o PIB pela Paridade do Poder de Compra (PPP ou PPC)?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>É uma medida que converte o PIB usando preços internacionais padronizados (geralmente dos EUA) para refletir o poder de compra real.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>O que ocorre com o PIB nominal em dólares de um país se sua moeda se desvaloriza?</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>O PIB em dólares cai, mesmo que a produção interna de bens e serviços permaneça inalterada.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Qual base de preços é usada no cálculo do PIB PPP pela ONU?</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Os preços dos bens e serviços praticados nos Estados Unidos, aplicados às quantidades produzidas por cada país.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>O que o conceito de "dólar internacional" no PIB PPP busca equalizar?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Busca equalizar o poder de compra das moedas, eliminando distorções puramente cambiais.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Se o Real se valoriza frente ao Dólar, qual o efeito no PIB brasileiro em dólares correntes?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>O PIB em dólares aumenta "artificialmente", pois os produtos brasileiros ficam mais caros em dólares, sem aumento de volume.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Por que o Brasil ocupa uma posição melhor no ranking de PIB PPP (8º) do que no PIB nominal (11º) em 2021?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Porque o Real é desvalorizado frente ao Dólar e o custo de vida interno é menor, o que eleva o poder de compra relativo.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Qual país superou os Estados Unidos e assumiu a liderança do PIB PPP mundial a partir de 2016?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A China.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Como é o PIB per capita do Brasil em comparação a países como Portugal e Grécia?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>É significativamente inferior, tanto em dólares correntes quanto em paridade de poder de compra.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Para que finalidade o PIB em dólares correntes (nominal) continua sendo preferível ao PPP?</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Para analisar o peso do país em transações internacionais (comércio, finanças) e fluxos de capitais.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pág 22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Por que a ONU prefere o PIB PPP para medir crescimento e bem-estar?</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Porque evita as distorções causadas pela volatilidade das políticas cambiais dos governos.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Pág 22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>O que postula a "Lei do Preço Único", base teórica da Paridade do Poder de Compra?</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Que, em mercados competitivos e sem barreiras, produtos idênticos deveriam ter o mesmo preço em todos os países.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pág 22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
     </row>
